--- a/Exercices/exo4b.xlsx
+++ b/Exercices/exo4b.xlsx
@@ -426,9 +426,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -471,6 +468,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:X114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="R115" sqref="R115"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,36 +1039,36 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="F4" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="O4" s="5" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="O4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="S4" s="5" t="s">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="S4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="5" t="s">
+      <c r="T4" s="20"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
     </row>
     <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -1119,13 +1119,13 @@
       <c r="T5" t="s">
         <v>48</v>
       </c>
-      <c r="V5" s="8" t="s">
+      <c r="V5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       <c r="W6" s="3">
         <v>34626</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <v>4</v>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       <c r="W7" s="3">
         <v>35417</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       <c r="W8" s="3">
         <v>32947</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       <c r="W9" s="3">
         <v>34625</v>
       </c>
-      <c r="X9" s="7">
+      <c r="X9" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       <c r="W10" s="3">
         <v>35173</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="6">
         <v>4</v>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       <c r="W11" s="3">
         <v>35964</v>
       </c>
-      <c r="X11" s="7">
+      <c r="X11" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       <c r="W12" s="3">
         <v>34683</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="6">
         <v>4</v>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       <c r="W13" s="3">
         <v>34196</v>
       </c>
-      <c r="X13" s="7">
+      <c r="X13" s="6">
         <v>4</v>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       <c r="W14" s="3">
         <v>37449</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       <c r="W15" s="3">
         <v>36285</v>
       </c>
-      <c r="X15" s="7">
+      <c r="X15" s="6">
         <v>7</v>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       <c r="W16" s="3">
         <v>34885</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="6">
         <v>4</v>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       <c r="W17" s="3">
         <v>35535</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X17" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
       <c r="W18" s="3">
         <v>36451</v>
       </c>
-      <c r="X18" s="7">
+      <c r="X18" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       <c r="W19" s="3">
         <v>35356</v>
       </c>
-      <c r="X19" s="7">
+      <c r="X19" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       <c r="W20" s="3">
         <v>33790</v>
       </c>
-      <c r="X20" s="7">
+      <c r="X20" s="6">
         <v>4</v>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       <c r="W21" s="3">
         <v>34895</v>
       </c>
-      <c r="X21" s="7">
+      <c r="X21" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
       <c r="W22" s="3">
         <v>36299</v>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="6">
         <v>6</v>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       <c r="W23" s="3">
         <v>37517</v>
       </c>
-      <c r="X23" s="7">
+      <c r="X23" s="6">
         <v>7</v>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       <c r="W24" s="3">
         <v>37119</v>
       </c>
-      <c r="X24" s="7">
+      <c r="X24" s="6">
         <v>7</v>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       <c r="W25" s="3">
         <v>37819</v>
       </c>
-      <c r="X25" s="7">
+      <c r="X25" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       <c r="W26" s="3">
         <v>33605</v>
       </c>
-      <c r="X26" s="7">
+      <c r="X26" s="6">
         <v>10</v>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       <c r="W27" s="3">
         <v>31052</v>
       </c>
-      <c r="X27" s="7">
+      <c r="X27" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
       <c r="W28" s="3">
         <v>34977</v>
       </c>
-      <c r="X28" s="7">
+      <c r="X28" s="6">
         <v>8</v>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
       <c r="W29" s="3">
         <v>37077</v>
       </c>
-      <c r="X29" s="7">
+      <c r="X29" s="6">
         <v>7</v>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
       <c r="W30" s="3">
         <v>33089</v>
       </c>
-      <c r="X30" s="7">
+      <c r="X30" s="6">
         <v>7</v>
       </c>
     </row>
@@ -2165,13 +2165,13 @@
       <c r="M31">
         <v>30</v>
       </c>
-      <c r="V31" s="11">
+      <c r="V31" s="10">
         <v>18</v>
       </c>
-      <c r="W31" s="12">
+      <c r="W31" s="11">
         <v>36131</v>
       </c>
-      <c r="X31" s="13">
+      <c r="X31" s="12">
         <v>7</v>
       </c>
     </row>
@@ -2293,14 +2293,14 @@
       <c r="M35">
         <v>20</v>
       </c>
-      <c r="V35" s="14">
+      <c r="V35" s="13">
         <v>1</v>
       </c>
-      <c r="W35" s="15" t="str">
+      <c r="W35" s="14" t="str">
         <f>TEXT(W6,"aaaa-mm-jj")</f>
         <v>1994-10-19</v>
       </c>
-      <c r="X35" s="17">
+      <c r="X35" s="16">
         <v>4</v>
       </c>
     </row>
@@ -2333,14 +2333,14 @@
       <c r="M36">
         <v>10</v>
       </c>
-      <c r="V36" s="16">
+      <c r="V36" s="15">
         <v>1</v>
       </c>
-      <c r="W36" s="15" t="str">
+      <c r="W36" s="14" t="str">
         <f t="shared" ref="W36:W60" si="4">TEXT(W7,"aaaa-mm-jj")</f>
         <v>1996-12-18</v>
       </c>
-      <c r="X36" s="18">
+      <c r="X36" s="17">
         <v>1</v>
       </c>
     </row>
@@ -2373,14 +2373,14 @@
       <c r="M37">
         <v>30</v>
       </c>
-      <c r="V37" s="14">
+      <c r="V37" s="13">
         <v>2</v>
       </c>
-      <c r="W37" s="15" t="str">
+      <c r="W37" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1990-03-15</v>
       </c>
-      <c r="X37" s="17">
+      <c r="X37" s="16">
         <v>3</v>
       </c>
     </row>
@@ -2413,14 +2413,14 @@
       <c r="M38">
         <v>20</v>
       </c>
-      <c r="V38" s="16">
+      <c r="V38" s="15">
         <v>2</v>
       </c>
-      <c r="W38" s="15" t="str">
+      <c r="W38" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1994-10-18</v>
       </c>
-      <c r="X38" s="18">
+      <c r="X38" s="17">
         <v>2</v>
       </c>
     </row>
@@ -2453,14 +2453,14 @@
       <c r="M39">
         <v>10</v>
       </c>
-      <c r="V39" s="14">
+      <c r="V39" s="13">
         <v>3</v>
       </c>
-      <c r="W39" s="15" t="str">
+      <c r="W39" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1996-04-18</v>
       </c>
-      <c r="X39" s="17">
+      <c r="X39" s="16">
         <v>4</v>
       </c>
     </row>
@@ -2492,14 +2492,14 @@
       <c r="M40">
         <v>20</v>
       </c>
-      <c r="V40" s="16">
+      <c r="V40" s="15">
         <v>3</v>
       </c>
-      <c r="W40" s="15" t="str">
+      <c r="W40" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1998-06-18</v>
       </c>
-      <c r="X40" s="18">
+      <c r="X40" s="17">
         <v>3</v>
       </c>
     </row>
@@ -2532,14 +2532,14 @@
       <c r="M41">
         <v>40</v>
       </c>
-      <c r="V41" s="14">
+      <c r="V41" s="13">
         <v>4</v>
       </c>
-      <c r="W41" s="15" t="str">
+      <c r="W41" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1994-12-15</v>
       </c>
-      <c r="X41" s="17">
+      <c r="X41" s="16">
         <v>4</v>
       </c>
     </row>
@@ -2571,14 +2571,14 @@
       <c r="M42">
         <v>10</v>
       </c>
-      <c r="V42" s="16">
+      <c r="V42" s="15">
         <v>5</v>
       </c>
-      <c r="W42" s="15" t="str">
+      <c r="W42" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1993-08-15</v>
       </c>
-      <c r="X42" s="18">
+      <c r="X42" s="17">
         <v>4</v>
       </c>
     </row>
@@ -2611,14 +2611,14 @@
       <c r="M43">
         <v>10</v>
       </c>
-      <c r="V43" s="14">
+      <c r="V43" s="13">
         <v>6</v>
       </c>
-      <c r="W43" s="15" t="str">
+      <c r="W43" s="14" t="str">
         <f t="shared" si="4"/>
         <v>2002-07-12</v>
       </c>
-      <c r="X43" s="17">
+      <c r="X43" s="16">
         <v>2</v>
       </c>
     </row>
@@ -2651,26 +2651,26 @@
       <c r="M44">
         <v>30</v>
       </c>
-      <c r="V44" s="16">
+      <c r="V44" s="15">
         <v>7</v>
       </c>
-      <c r="W44" s="15" t="str">
+      <c r="W44" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1999-05-05</v>
       </c>
-      <c r="X44" s="18">
+      <c r="X44" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="6:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V45" s="14">
+      <c r="V45" s="13">
         <v>8</v>
       </c>
-      <c r="W45" s="15" t="str">
+      <c r="W45" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1995-07-05</v>
       </c>
-      <c r="X45" s="17">
+      <c r="X45" s="16">
         <v>4</v>
       </c>
     </row>
@@ -2679,14 +2679,14 @@
         <f>"INSERT INTO `Employe` (`"&amp;$F$26&amp;"`, `"&amp;$G$26&amp;"`, `"&amp;$I$26&amp;"`, `"&amp;$J$26&amp;"`, `"&amp;$K$26&amp;"`, `"&amp;$L$26&amp;"`, `"&amp;$M$26&amp;"`  ) VALUES ('"&amp;F27&amp;"', '"&amp;G27&amp;"', "&amp;I27&amp;", '"&amp;J27&amp;"', '"&amp;K27&amp;"', '"&amp;L27&amp;"', '"&amp;M27&amp;"');"</f>
         <v>INSERT INTO `Employe` (`noemp`, `nomemp`, `noemp_1`, `datemb`, `sala`, `comm`, `nodep`  ) VALUES ('1', 'Costanza', 8, '1994-10-19', '1715', '200', '30');</v>
       </c>
-      <c r="V46" s="16">
+      <c r="V46" s="15">
         <v>8</v>
       </c>
-      <c r="W46" s="15" t="str">
+      <c r="W46" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1997-04-15</v>
       </c>
-      <c r="X46" s="18">
+      <c r="X46" s="17">
         <v>3</v>
       </c>
     </row>
@@ -2695,14 +2695,14 @@
         <f t="shared" ref="F47:F63" si="5">"INSERT INTO `Employe` (`"&amp;$F$26&amp;"`, `"&amp;$G$26&amp;"`, `"&amp;$I$26&amp;"`, `"&amp;$J$26&amp;"`, `"&amp;$K$26&amp;"`, `"&amp;$L$26&amp;"`, `"&amp;$M$26&amp;"`  ) VALUES ('"&amp;F28&amp;"', '"&amp;G28&amp;"', "&amp;I28&amp;", '"&amp;J28&amp;"', '"&amp;K28&amp;"', '"&amp;L28&amp;"', '"&amp;M28&amp;"');"</f>
         <v>INSERT INTO `Employe` (`noemp`, `nomemp`, `noemp_1`, `datemb`, `sala`, `comm`, `nodep`  ) VALUES ('2', 'Mioche', 6, '1990-03-15', '2200', '1000', '20');</v>
       </c>
-      <c r="V47" s="14">
+      <c r="V47" s="13">
         <v>8</v>
       </c>
-      <c r="W47" s="15" t="str">
+      <c r="W47" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1999-10-18</v>
       </c>
-      <c r="X47" s="17">
+      <c r="X47" s="16">
         <v>2</v>
       </c>
     </row>
@@ -2711,14 +2711,14 @@
         <f t="shared" si="5"/>
         <v>INSERT INTO `Employe` (`noemp`, `nomemp`, `noemp_1`, `datemb`, `sala`, `comm`, `nodep`  ) VALUES ('3', 'Durand', 2, '1996-04-18', '3250', '0', '10');</v>
       </c>
-      <c r="V48" s="16">
+      <c r="V48" s="15">
         <v>10</v>
       </c>
-      <c r="W48" s="15" t="str">
+      <c r="W48" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1996-10-18</v>
       </c>
-      <c r="X48" s="18">
+      <c r="X48" s="17">
         <v>5</v>
       </c>
     </row>
@@ -2727,14 +2727,14 @@
         <f t="shared" si="5"/>
         <v>INSERT INTO `Employe` (`noemp`, `nomemp`, `noemp_1`, `datemb`, `sala`, `comm`, `nodep`  ) VALUES ('4', 'Xiong', 5, '1994-12-15', '1150', '200', '30');</v>
       </c>
-      <c r="V49" s="14">
+      <c r="V49" s="13">
         <v>11</v>
       </c>
-      <c r="W49" s="15" t="str">
+      <c r="W49" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1992-07-05</v>
       </c>
-      <c r="X49" s="17">
+      <c r="X49" s="16">
         <v>4</v>
       </c>
     </row>
@@ -2743,14 +2743,14 @@
         <f t="shared" si="5"/>
         <v>INSERT INTO `Employe` (`noemp`, `nomemp`, `noemp_1`, `datemb`, `sala`, `comm`, `nodep`  ) VALUES ('5', 'Manoukian', 11, '1993-08-15', '2530', '500', '30');</v>
       </c>
-      <c r="V50" s="16">
+      <c r="V50" s="15">
         <v>11</v>
       </c>
-      <c r="W50" s="15" t="str">
+      <c r="W50" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1995-07-15</v>
       </c>
-      <c r="X50" s="18">
+      <c r="X50" s="17">
         <v>3</v>
       </c>
     </row>
@@ -2759,14 +2759,14 @@
         <f t="shared" si="5"/>
         <v>INSERT INTO `Employe` (`noemp`, `nomemp`, `noemp_1`, `datemb`, `sala`, `comm`, `nodep`  ) VALUES ('6', 'Bourdais', 15, '2002-07-12', '3550', '850', '40');</v>
       </c>
-      <c r="V51" s="14">
+      <c r="V51" s="13">
         <v>11</v>
       </c>
-      <c r="W51" s="15" t="str">
+      <c r="W51" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1999-05-19</v>
       </c>
-      <c r="X51" s="17">
+      <c r="X51" s="16">
         <v>6</v>
       </c>
     </row>
@@ -2775,14 +2775,14 @@
         <f t="shared" si="5"/>
         <v>INSERT INTO `Employe` (`noemp`, `nomemp`, `noemp_1`, `datemb`, `sala`, `comm`, `nodep`  ) VALUES ('7', 'Moreno', 3, '1999-05-05', '1075', '50', '10');</v>
       </c>
-      <c r="V52" s="16">
+      <c r="V52" s="15">
         <v>12</v>
       </c>
-      <c r="W52" s="15" t="str">
+      <c r="W52" s="14" t="str">
         <f t="shared" si="4"/>
         <v>2002-09-18</v>
       </c>
-      <c r="X52" s="18">
+      <c r="X52" s="17">
         <v>7</v>
       </c>
     </row>
@@ -2791,14 +2791,14 @@
         <f t="shared" si="5"/>
         <v>INSERT INTO `Employe` (`noemp`, `nomemp`, `noemp_1`, `datemb`, `sala`, `comm`, `nodep`  ) VALUES ('8', 'Perou', 2, '1995-07-05', '2450', '800', '10');</v>
       </c>
-      <c r="V53" s="14">
+      <c r="V53" s="13">
         <v>13</v>
       </c>
-      <c r="W53" s="15" t="str">
+      <c r="W53" s="14" t="str">
         <f t="shared" si="4"/>
         <v>2001-08-16</v>
       </c>
-      <c r="X53" s="17">
+      <c r="X53" s="16">
         <v>7</v>
       </c>
     </row>
@@ -2807,14 +2807,14 @@
         <f t="shared" si="5"/>
         <v>INSERT INTO `Employe` (`noemp`, `nomemp`, `noemp_1`, `datemb`, `sala`, `comm`, `nodep`  ) VALUES ('9', 'Bibaut', 8, '1993-06-07', '2200', '0', '20');</v>
       </c>
-      <c r="V54" s="16">
+      <c r="V54" s="15">
         <v>13</v>
       </c>
-      <c r="W54" s="15" t="str">
+      <c r="W54" s="14" t="str">
         <f t="shared" si="4"/>
         <v>2003-07-17</v>
       </c>
-      <c r="X54" s="18">
+      <c r="X54" s="17">
         <v>5</v>
       </c>
     </row>
@@ -2823,14 +2823,14 @@
         <f t="shared" si="5"/>
         <v>INSERT INTO `Employe` (`noemp`, `nomemp`, `noemp_1`, `datemb`, `sala`, `comm`, `nodep`  ) VALUES ('10', 'Manian', 9, '1996-10-18', '1000', '250', '10');</v>
       </c>
-      <c r="V55" s="14">
+      <c r="V55" s="13">
         <v>14</v>
       </c>
-      <c r="W55" s="15" t="str">
+      <c r="W55" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1992-01-02</v>
       </c>
-      <c r="X55" s="17">
+      <c r="X55" s="16">
         <v>10</v>
       </c>
     </row>
@@ -2839,14 +2839,14 @@
         <f t="shared" si="5"/>
         <v>INSERT INTO `Employe` (`noemp`, `nomemp`, `noemp_1`, `datemb`, `sala`, `comm`, `nodep`  ) VALUES ('11', 'Colin', 2, '1992-07-05', '2702.5', '625', '30');</v>
       </c>
-      <c r="V56" s="16">
+      <c r="V56" s="15">
         <v>15</v>
       </c>
-      <c r="W56" s="15" t="str">
+      <c r="W56" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1985-01-05</v>
       </c>
-      <c r="X56" s="18">
+      <c r="X56" s="17">
         <v>2</v>
       </c>
     </row>
@@ -2855,14 +2855,14 @@
         <f t="shared" si="5"/>
         <v>INSERT INTO `Employe` (`noemp`, `nomemp`, `noemp_1`, `datemb`, `sala`, `comm`, `nodep`  ) VALUES ('12', 'Coulon', 8, '2002-09-18', '858', '125', '20');</v>
       </c>
-      <c r="V57" s="14">
+      <c r="V57" s="13">
         <v>15</v>
       </c>
-      <c r="W57" s="15" t="str">
+      <c r="W57" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1995-10-05</v>
       </c>
-      <c r="X57" s="17">
+      <c r="X57" s="16">
         <v>8</v>
       </c>
     </row>
@@ -2871,14 +2871,14 @@
         <f t="shared" si="5"/>
         <v>INSERT INTO `Employe` (`noemp`, `nomemp`, `noemp_1`, `datemb`, `sala`, `comm`, `nodep`  ) VALUES ('13', 'Roméo', 8, '2001-08-16', '1025', '1150', '10');</v>
       </c>
-      <c r="V58" s="16">
+      <c r="V58" s="15">
         <v>16</v>
       </c>
-      <c r="W58" s="15" t="str">
+      <c r="W58" s="14" t="str">
         <f t="shared" si="4"/>
         <v>2001-07-05</v>
       </c>
-      <c r="X58" s="18">
+      <c r="X58" s="17">
         <v>7</v>
       </c>
     </row>
@@ -2887,14 +2887,14 @@
         <f t="shared" si="5"/>
         <v>INSERT INTO `Employe` (`noemp`, `nomemp`, `noemp_1`, `datemb`, `sala`, `comm`, `nodep`  ) VALUES ('14', 'Solal', 3, '1992-02-15', '1225', '0', '20');</v>
       </c>
-      <c r="V59" s="14">
+      <c r="V59" s="13">
         <v>17</v>
       </c>
-      <c r="W59" s="15" t="str">
+      <c r="W59" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1990-08-04</v>
       </c>
-      <c r="X59" s="17">
+      <c r="X59" s="16">
         <v>7</v>
       </c>
     </row>
@@ -2903,14 +2903,14 @@
         <f t="shared" si="5"/>
         <v>INSERT INTO `Employe` (`noemp`, `nomemp`, `noemp_1`, `datemb`, `sala`, `comm`, `nodep`  ) VALUES ('15', 'Bailly', null, '1985-01-05', '4275', '2000', '40');</v>
       </c>
-      <c r="V60" s="19">
+      <c r="V60" s="18">
         <v>18</v>
       </c>
-      <c r="W60" s="15" t="str">
+      <c r="W60" s="14" t="str">
         <f t="shared" si="4"/>
         <v>1998-12-02</v>
       </c>
-      <c r="X60" s="20">
+      <c r="X60" s="19">
         <v>7</v>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
         <f t="shared" si="5"/>
         <v>INSERT INTO `Employe` (`noemp`, `nomemp`, `noemp_1`, `datemb`, `sala`, `comm`, `nodep`  ) VALUES ('16', 'Jazarin', 2, '2001-07-05', '875', '0', '10');</v>
       </c>
-      <c r="X61" s="20"/>
+      <c r="X61" s="19"/>
     </row>
     <row r="62" spans="6:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F62" t="str">
@@ -2941,7 +2941,7 @@
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F70" si="6">"INSERT INTO `Departement` (`nodep`, `nomdep`, `ville`) VALUES ('"&amp;B7&amp;"', '"&amp;C7&amp;"', '"&amp;C7&amp;"' );"</f>
+        <f t="shared" ref="F67:F69" si="6">"INSERT INTO `Departement` (`nodep`, `nomdep`, `ville`) VALUES ('"&amp;B7&amp;"', '"&amp;C7&amp;"', '"&amp;C7&amp;"' );"</f>
         <v>INSERT INTO `Departement` (`nodep`, `nomdep`, `ville`) VALUES ('20', 'Ingénierie', 'Ingénierie' );</v>
       </c>
     </row>
@@ -2959,37 +2959,37 @@
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72" t="str">
-        <f>"INSERT INTO `Grade` (`salmin`, `salmax`) VALUES ('"&amp;P16&amp;"', '"&amp;Q16&amp;"');"</f>
+        <f t="shared" ref="F72:F77" si="7">"INSERT INTO `Grade` (`salmin`, `salmax`) VALUES ('"&amp;P16&amp;"', '"&amp;Q16&amp;"');"</f>
         <v>INSERT INTO `Grade` (`salmin`, `salmax`) VALUES ('0', '1000');</v>
       </c>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73" t="str">
-        <f>"INSERT INTO `Grade` (`salmin`, `salmax`) VALUES ('"&amp;P17&amp;"', '"&amp;Q17&amp;"');"</f>
+        <f t="shared" si="7"/>
         <v>INSERT INTO `Grade` (`salmin`, `salmax`) VALUES ('1000.01', '2000');</v>
       </c>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74" t="str">
-        <f>"INSERT INTO `Grade` (`salmin`, `salmax`) VALUES ('"&amp;P18&amp;"', '"&amp;Q18&amp;"');"</f>
+        <f t="shared" si="7"/>
         <v>INSERT INTO `Grade` (`salmin`, `salmax`) VALUES ('2000.01', '3000');</v>
       </c>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75" t="str">
-        <f>"INSERT INTO `Grade` (`salmin`, `salmax`) VALUES ('"&amp;P19&amp;"', '"&amp;Q19&amp;"');"</f>
+        <f t="shared" si="7"/>
         <v>INSERT INTO `Grade` (`salmin`, `salmax`) VALUES ('3000.01', '4000');</v>
       </c>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76" t="str">
-        <f>"INSERT INTO `Grade` (`salmin`, `salmax`) VALUES ('"&amp;P20&amp;"', '"&amp;Q20&amp;"');"</f>
+        <f t="shared" si="7"/>
         <v>INSERT INTO `Grade` (`salmin`, `salmax`) VALUES ('4000.01', '5000');</v>
       </c>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77" t="str">
-        <f>"INSERT INTO `Grade` (`salmin`, `salmax`) VALUES ('"&amp;P21&amp;"', '"&amp;Q21&amp;"');"</f>
+        <f t="shared" si="7"/>
         <v>INSERT INTO `Grade` (`salmin`, `salmax`) VALUES ('5000.01', '6000');</v>
       </c>
     </row>
@@ -3001,49 +3001,49 @@
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" t="str">
-        <f t="shared" ref="F81:F95" si="7">"INSERT INTO `Fonction` (`intitulé`) VALUES ('"&amp;T7&amp;"');"</f>
+        <f t="shared" ref="F81:F88" si="8">"INSERT INTO `Fonction` (`intitulé`) VALUES ('"&amp;T7&amp;"');"</f>
         <v>INSERT INTO `Fonction` (`intitulé`) VALUES ('directeur');</v>
       </c>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO `Fonction` (`intitulé`) VALUES ('responsable');</v>
       </c>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO `Fonction` (`intitulé`) VALUES ('vendeur');</v>
       </c>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO `Fonction` (`intitulé`) VALUES ('assistant');</v>
       </c>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO `Fonction` (`intitulé`) VALUES ('analyste');</v>
       </c>
     </row>
     <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO `Fonction` (`intitulé`) VALUES ('ouvrier');</v>
       </c>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO `Fonction` (`intitulé`) VALUES ('président');</v>
       </c>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO `Fonction` (`intitulé`) VALUES ('chef de service');</v>
       </c>
     </row>
@@ -3055,145 +3055,145 @@
     </row>
     <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" t="str">
-        <f t="shared" ref="F91:F118" si="8">"INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('"&amp;V37&amp;"', '"&amp;W37&amp;"', '"&amp;X37&amp;"' );"</f>
+        <f t="shared" ref="F91:F114" si="9">"INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('"&amp;V37&amp;"', '"&amp;W37&amp;"', '"&amp;X37&amp;"' );"</f>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('2', '1990-03-15', '3' );</v>
       </c>
     </row>
     <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('2', '1994-10-18', '2' );</v>
       </c>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('3', '1996-04-18', '4' );</v>
       </c>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('3', '1998-06-18', '3' );</v>
       </c>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('4', '1994-12-15', '4' );</v>
       </c>
     </row>
     <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('5', '1993-08-15', '4' );</v>
       </c>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('6', '2002-07-12', '2' );</v>
       </c>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('7', '1999-05-05', '7' );</v>
       </c>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('8', '1995-07-05', '4' );</v>
       </c>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('8', '1997-04-15', '3' );</v>
       </c>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('8', '1999-10-18', '2' );</v>
       </c>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('10', '1996-10-18', '5' );</v>
       </c>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('11', '1992-07-05', '4' );</v>
       </c>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('11', '1995-07-15', '3' );</v>
       </c>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('11', '1999-05-19', '6' );</v>
       </c>
     </row>
     <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('12', '2002-09-18', '7' );</v>
       </c>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('13', '2001-08-16', '7' );</v>
       </c>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('13', '2003-07-17', '5' );</v>
       </c>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F109" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('14', '1992-01-02', '10' );</v>
       </c>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F110" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('15', '1985-01-05', '2' );</v>
       </c>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F111" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('15', '1995-10-05', '8' );</v>
       </c>
     </row>
     <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('16', '2001-07-05', '7' );</v>
       </c>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F113" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('17', '1990-08-04', '7' );</v>
       </c>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F114" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO `Histofonction` (`noemp`, `date_nom`, `id_Fonction`) VALUES ('18', '1998-12-02', '7' );</v>
       </c>
     </row>
